--- a/20220630 Sequencing files.xlsx
+++ b/20220630 Sequencing files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6DB543-C669-4027-B817-6DA0E7833F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717571A-C08C-40A3-9270-D9E5BD18DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sample</t>
   </si>
@@ -107,12 +107,18 @@
   </si>
   <si>
     <t>STARR_075</t>
+  </si>
+  <si>
+    <t>STARR_051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -141,10 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -473,13 +480,13 @@
     <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="36.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,14 +505,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -516,17 +523,17 @@
         <v>95000</v>
       </c>
       <c r="D2" s="1">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D10" si="0">C2-B2</f>
         <v>59480</v>
       </c>
       <c r="E2" s="1">
         <v>19146</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F10" si="1">D2*E2</f>
         <v>1138804080</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <f>F2/$H$2</f>
         <v>0.45087939149193257</v>
       </c>
@@ -534,8 +541,12 @@
         <f>SUM(F2:F4)</f>
         <v>2525739924</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <f>SUM(G2:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -546,22 +557,22 @@
         <v>95000</v>
       </c>
       <c r="D3" s="1">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>53138</v>
       </c>
       <c r="E3" s="1">
         <v>16834</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*E3</f>
+        <f t="shared" si="1"/>
         <v>894525092</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <f>F3/$H$2</f>
         <v>0.3541635793535487</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -572,407 +583,442 @@
         <v>95000</v>
       </c>
       <c r="D4" s="1">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>36016</v>
       </c>
       <c r="E4" s="1">
         <v>13672</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>492410752</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f>F4/$H$2</f>
         <v>0.19495702915451876</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>39121</v>
       </c>
-      <c r="C5" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D5" s="1">
-        <f>C5-B5</f>
+      <c r="C6" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
         <v>55879</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>18171</v>
       </c>
-      <c r="F5" s="1">
-        <f>D5*E5</f>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
         <v>1015377309</v>
       </c>
-      <c r="G5" s="2">
-        <f>F5/$H$5</f>
-        <v>0.4137491926795176</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SUM(F5:F8)</f>
-        <v>2454088919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="3">
+        <f>F6/$H$6</f>
+        <v>0.36818257840481894</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(F6:F10)</f>
+        <v>2757809219</v>
+      </c>
+      <c r="I6" s="2">
+        <f>SUM(G6:G9)</f>
+        <v>0.88986899532153596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>56061</v>
       </c>
-      <c r="C6" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D6" s="1">
-        <f>C6-B6</f>
+      <c r="C7" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
         <v>38939</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>14606</v>
       </c>
-      <c r="F6" s="1">
-        <f>D6*E6</f>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
         <v>568743034</v>
       </c>
-      <c r="G6" s="2">
-        <f>F6/$H$5</f>
-        <v>0.23175323012817042</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" s="3">
+        <f>F7/$H$6</f>
+        <v>0.20623001405667576</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>68439</v>
       </c>
-      <c r="C7" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D7" s="1">
-        <f>C7-B7</f>
+      <c r="C8" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>26561</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>11091</v>
       </c>
-      <c r="F7" s="1">
-        <f>D7*E7</f>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
         <v>294588051</v>
       </c>
-      <c r="G7" s="2">
-        <f>F7/$H$5</f>
-        <v>0.12003968100717381</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G8" s="3">
+        <f>F8/$H$6</f>
+        <v>0.10681959033657143</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>52395</v>
       </c>
-      <c r="C8" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D8" s="1">
-        <f>C8-B8</f>
+      <c r="C9" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>42605</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>13505</v>
       </c>
-      <c r="F8" s="1">
-        <f>D8*E8</f>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
         <v>575380525</v>
       </c>
-      <c r="G8" s="2">
-        <f>F8/$H$5</f>
-        <v>0.23445789618513818</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>55184</v>
-      </c>
-      <c r="C9" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D14" si="0">C9-B9</f>
-        <v>39816</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9511</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9:F14" si="1">D9*E9</f>
-        <v>378689976</v>
-      </c>
-      <c r="G9" s="2">
-        <f>F9/$H$9</f>
-        <v>0.14333477998051022</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SUM(F9:F14)</f>
-        <v>2641996423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <f>F9/$H$6</f>
+        <v>0.20863681252346991</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>81582</v>
+        <v>65165</v>
       </c>
       <c r="C10" s="1">
         <v>95000</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>13418</v>
+        <v>29835</v>
       </c>
       <c r="E10" s="1">
-        <v>8650</v>
+        <v>10180</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
+        <v>303720300</v>
+      </c>
+      <c r="G10" s="3">
+        <f>F10/$H$6</f>
+        <v>0.11013100467846394</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2">
+        <f>SUM(G10)</f>
+        <v>0.11013100467846394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>55184</v>
+      </c>
+      <c r="C11" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:D16" si="2">C11-B11</f>
+        <v>39816</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9511</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F16" si="3">D11*E11</f>
+        <v>378689976</v>
+      </c>
+      <c r="G11" s="3">
+        <f>F11/$H$11</f>
+        <v>0.14333477998051022</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SUM(F11:F16)</f>
+        <v>2641996423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>81582</v>
+      </c>
+      <c r="C12" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>13418</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8650</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
         <v>116065700</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" ref="G10:G14" si="2">F10/$H$9</f>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G16" si="4">F12/$H$11</f>
         <v>4.3931058721194946E-2</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>47277</v>
       </c>
-      <c r="C11" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
+      <c r="C13" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
         <v>47723</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>13939</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
         <v>665210897</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25178342075295079</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>69661</v>
+      </c>
+      <c r="C14" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>0.25178342075295079</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>69661</v>
-      </c>
-      <c r="C12" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
         <v>25339</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>12639</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
         <v>320259621</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12121879432234189</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>54059</v>
+      </c>
+      <c r="C15" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>0.12121879432234189</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>54059</v>
-      </c>
-      <c r="C13" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
         <v>40941</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>12248</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
         <v>501445368</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18979789814802486</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44789</v>
+      </c>
+      <c r="C16" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>0.18979789814802486</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44789</v>
-      </c>
-      <c r="C14" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
         <v>50211</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>13151</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
         <v>660324861</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
+      <c r="G16" s="3">
+        <f t="shared" si="4"/>
         <v>0.24993404807497727</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>49482</v>
-      </c>
-      <c r="C15" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D15" s="1">
-        <f>C15-B15</f>
-        <v>45518</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13279</v>
-      </c>
-      <c r="F15" s="1">
-        <f>D15*E15</f>
-        <v>604433522</v>
-      </c>
-      <c r="G15" s="2">
-        <f>F15/$H$15</f>
-        <v>0.22343363011780396</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SUM(F15:F17)</f>
-        <v>2705203875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>37378</v>
-      </c>
-      <c r="C16" s="1">
-        <v>95000</v>
-      </c>
-      <c r="D16" s="1">
-        <f>C16-B16</f>
-        <v>57622</v>
-      </c>
-      <c r="E16" s="1">
-        <v>19468</v>
-      </c>
-      <c r="F16" s="1">
-        <f>D16*E16</f>
-        <v>1121785096</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16:G17" si="3">F16/$H$15</f>
-        <v>0.41467672967901542</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>37853</v>
+        <v>49482</v>
       </c>
       <c r="C17" s="1">
         <v>95000</v>
       </c>
       <c r="D17" s="1">
         <f>C17-B17</f>
-        <v>57147</v>
+        <v>45518</v>
       </c>
       <c r="E17" s="1">
-        <v>17131</v>
+        <v>13279</v>
       </c>
       <c r="F17" s="1">
         <f>D17*E17</f>
+        <v>604433522</v>
+      </c>
+      <c r="G17" s="3">
+        <f>F17/$H$17</f>
+        <v>0.22343363011780396</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SUM(F17:F19)</f>
+        <v>2705203875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>37378</v>
+      </c>
+      <c r="C18" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18-B18</f>
+        <v>57622</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19468</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18*E18</f>
+        <v>1121785096</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ref="G18:G19" si="5">F18/$H$17</f>
+        <v>0.41467672967901542</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37853</v>
+      </c>
+      <c r="C19" s="1">
+        <v>95000</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19-B19</f>
+        <v>57147</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17131</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19*E19</f>
         <v>978985257</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
+      <c r="G19" s="3">
+        <f t="shared" si="5"/>
         <v>0.3618896402031806</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
